--- a/data/edited_data/employment_rate_partnered_mothers,_2021.xlsx
+++ b/data/edited_data/employment_rate_partnered_mothers,_2021.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3ba135bfd0da921d/Documents/12_Ironhack/projects/female-labour/data/edited_data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3ba135bfd0da921d/Documents/12_Ironhack/projects/maternal-employment/data/edited_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="13_ncr:1_{4E2C66F8-C12A-41B1-8DD3-A2E035CFA985}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{945B8304-EAF3-473B-B1B9-904C2A03F108}"/>
+  <xr:revisionPtr revIDLastSave="5" documentId="13_ncr:1_{4E2C66F8-C12A-41B1-8DD3-A2E035CFA985}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0C23A556-2232-4005-82B6-ECF2294FBE56}"/>
   <bookViews>
-    <workbookView xWindow="31650" yWindow="0" windowWidth="23430" windowHeight="16590" xr2:uid="{2CD23EE1-26D8-4040-805F-220D47ADCE18}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{2CD23EE1-26D8-4040-805F-220D47ADCE18}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -179,7 +179,7 @@
     <t>United Kingdom</t>
   </si>
   <si>
-    <t>employment_rate_partnered_mothers_2021</t>
+    <t>emp_mothers_partnered</t>
   </si>
 </sst>
 </file>
@@ -210,14 +210,15 @@
     </font>
     <font>
       <sz val="10"/>
+      <color indexed="8"/>
       <name val="Arial Narrow"/>
       <family val="2"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color indexed="8"/>
-      <name val="Arial Narrow"/>
-      <family val="2"/>
+      <sz val="7"/>
+      <color rgb="FFA31515"/>
+      <name val="Consolas"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="4">
@@ -272,10 +273,10 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal 2 2" xfId="1" xr:uid="{28FEC5C7-A5E4-4131-AC6C-BB4A47D99CFC}"/>
@@ -626,11 +627,11 @@
     <col min="1" max="1" width="21.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="39" x14ac:dyDescent="0.35">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="6" t="s">
         <v>47</v>
       </c>
     </row>
